--- a/待办事项.xlsx
+++ b/待办事项.xlsx
@@ -4,19 +4,86 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="14990" windowHeight="6290"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="硬件和操作系统" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>实例类型</t>
+  </si>
+  <si>
+    <t>CPU(Core)</t>
+  </si>
+  <si>
+    <t>内存（GB）</t>
+  </si>
+  <si>
+    <t>磁盘分区-系统盘</t>
+  </si>
+  <si>
+    <t>磁盘分区-数据盘</t>
+  </si>
+  <si>
+    <t>挂载备份</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>postgresql主库</t>
+  </si>
+  <si>
+    <t>祼金属</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>10T</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>CentOS release6.10</t>
+  </si>
+  <si>
+    <t>postgresql备库</t>
+  </si>
+  <si>
+    <t>35T</t>
+  </si>
+  <si>
+    <t>postgresql异步备库</t>
+  </si>
+  <si>
+    <t>云主机</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -54,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -408,12 +475,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,7 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,34 +634,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,8 +746,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,89 +1064,115 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.81818181818182" customWidth="1"/>
-    <col min="2" max="2" width="15.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="9.72727272727273" customWidth="1"/>
+    <col min="4" max="4" width="9.81818181818182" customWidth="1"/>
+    <col min="5" max="5" width="15.8181818181818" customWidth="1"/>
+    <col min="6" max="7" width="16.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="19.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>756</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1">
+        <v>756</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,14 +1201,91 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="4.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="15.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/待办事项.xlsx
+++ b/待办事项.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14990" windowHeight="6290"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="硬件和操作系统" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="同步与异步压测" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>服务器</t>
   </si>
@@ -85,6 +86,48 @@
     <t>云主机</t>
   </si>
   <si>
+    <t>2022增长率</t>
+  </si>
+  <si>
+    <t>增长因子</t>
+  </si>
+  <si>
+    <t>未来3年增长空间</t>
+  </si>
+  <si>
+    <t>归档</t>
+  </si>
+  <si>
+    <t>数据库容量</t>
+  </si>
+  <si>
+    <t>预留空间</t>
+  </si>
+  <si>
+    <t>申请大概空间</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>年份增长ppom_application_object</t>
+  </si>
+  <si>
+    <t>表ppom_application_object</t>
+  </si>
+  <si>
+    <t>增长率</t>
+  </si>
+  <si>
+    <t>3.49T</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>百分之20</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -116,6 +159,54 @@
   </si>
   <si>
     <t>维护</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>PG数据库主备同步与异步压测</t>
+  </si>
+  <si>
+    <t>同步</t>
+  </si>
+  <si>
+    <t>异步</t>
+  </si>
+  <si>
+    <t>客户数</t>
+  </si>
+  <si>
+    <t>并发数</t>
+  </si>
+  <si>
+    <t>数据基准数</t>
+  </si>
+  <si>
+    <t>磁盘平均io</t>
+  </si>
+  <si>
+    <t>cpu利用率</t>
+  </si>
+  <si>
+    <t>平均延迟</t>
+  </si>
+  <si>
+    <t>执行时间</t>
+  </si>
+  <si>
+    <t>tps</t>
+  </si>
+  <si>
+    <t>commit time</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>正常测试</t>
+  </si>
+  <si>
+    <t>180s</t>
   </si>
 </sst>
 </file>
@@ -281,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +381,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -490,6 +587,39 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -622,7 +752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,123 +764,174 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,7 +1247,7 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1081,98 +1262,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="16">
         <v>88</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="16">
         <v>756</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="16">
         <v>88</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="16">
         <v>756</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,14 +1365,188 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="13.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="12.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="5.81818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="10.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="13.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="6.54545454545455" customWidth="1"/>
+    <col min="12" max="12" width="32.0909090909091" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="12.8181818181818"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="16">
+        <v>2021</v>
+      </c>
+      <c r="L2" s="16">
+        <v>62888702</v>
+      </c>
+      <c r="M2" s="16">
+        <v>262542166</v>
+      </c>
+      <c r="N2" s="16">
+        <f>L2/M2</f>
+        <v>0.239537530135255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="K3" s="16">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="16">
+        <v>94699864</v>
+      </c>
+      <c r="M3" s="16">
+        <v>262542166</v>
+      </c>
+      <c r="N3" s="16">
+        <f>L3/M3</f>
+        <v>0.360703446013316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="K4" s="16">
+        <v>2023</v>
+      </c>
+      <c r="L4" s="16">
+        <v>64537255</v>
+      </c>
+      <c r="M4" s="16">
+        <v>262542166</v>
+      </c>
+      <c r="N4" s="16">
+        <f>L4/M4</f>
+        <v>0.245816723398252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1201,10 +1556,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1215,13 +1570,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1229,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1237,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1245,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1253,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1261,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1269,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1277,12 +1632,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1290,4 +1659,294 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="5" width="8.72727272727273" style="1"/>
+    <col min="6" max="6" width="13.2727272727273" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7272727272727" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5454545454545" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.8181818181818" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>300</v>
+      </c>
+      <c r="E4" s="5">
+        <v>300</v>
+      </c>
+      <c r="F4" s="5">
+        <v>900</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>450</v>
+      </c>
+      <c r="E5" s="6">
+        <v>300</v>
+      </c>
+      <c r="F5" s="6">
+        <v>900</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>600</v>
+      </c>
+      <c r="E6" s="6">
+        <v>300</v>
+      </c>
+      <c r="F6" s="6">
+        <v>900</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5">
+        <v>300</v>
+      </c>
+      <c r="E8" s="5">
+        <v>300</v>
+      </c>
+      <c r="F8" s="5">
+        <v>900</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6">
+        <v>450</v>
+      </c>
+      <c r="E9" s="6">
+        <v>300</v>
+      </c>
+      <c r="F9" s="6">
+        <v>900</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6">
+        <v>600</v>
+      </c>
+      <c r="E10" s="6">
+        <v>300</v>
+      </c>
+      <c r="F10" s="6">
+        <v>900</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>